--- a/Connectons (version 1).xlsx
+++ b/Connectons (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CyberProjects\Full_NetSec-_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10660079-D12F-451C-A3A6-CD93DB3A28D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF04565-556E-4C54-8BEE-1040A029096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{D751A3FB-49E0-45D9-9BDD-52EDE75FD06E}"/>
   </bookViews>

--- a/Connectons (version 1).xlsx
+++ b/Connectons (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CyberProjects\Full_NetSec-_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF04565-556E-4C54-8BEE-1040A029096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAA2581-6905-4C80-A06E-F9738215993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{D751A3FB-49E0-45D9-9BDD-52EDE75FD06E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="254">
   <si>
     <t>Copper Straight-Through</t>
   </si>
@@ -786,6 +786,18 @@
   </si>
   <si>
     <t>192.168.3.21</t>
+  </si>
+  <si>
+    <t>Switch7</t>
+  </si>
+  <si>
+    <t>Switch2:Gig0/1</t>
+  </si>
+  <si>
+    <t>Switch2</t>
+  </si>
+  <si>
+    <t>Switch7:Gig0/1</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B114811-49D0-4155-B60D-649CD2E9625E}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L54"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,8 +1200,7 @@
     <col min="4" max="4" width="6.33203125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -2944,6 +2955,22 @@
         <v>249</v>
       </c>
     </row>
+    <row r="53" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>250</v>
+      </c>
+      <c r="I53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>252</v>
+      </c>
+      <c r="I54" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
